--- a/util-res-task/weekly_target_dates_accum_df_1.xlsx
+++ b/util-res-task/weekly_target_dates_accum_df_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:Q356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>W1 - Ramadhan/Shawwal</t>
+          <t>W1 - Shawwal</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>W1 - Shawwal/Dhu al-Qi’dah</t>
+          <t>W1 - Dhu al-Qi’dah</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>W1 - Dhu al-Qi’dah/Dhu al-Hijjah</t>
+          <t>W1 - Dhu al-Hijjah</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,11 +517,6 @@
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>W4 - Dhu al-Hijjah</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W1 - Dhu al-Hijjah/Muharram</t>
         </is>
       </c>
     </row>
@@ -579,9 +574,6 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,9 +629,6 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -695,9 +684,6 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -753,9 +739,6 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -811,9 +794,6 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -869,9 +849,6 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -927,9 +904,6 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -985,9 +959,6 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1043,9 +1014,6 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1101,9 +1069,6 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1159,9 +1124,6 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1217,9 +1179,6 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1275,9 +1234,6 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1333,9 +1289,6 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1391,9 +1344,6 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1449,9 +1399,6 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1507,9 +1454,6 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1565,9 +1509,6 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1623,9 +1564,6 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1681,9 +1619,6 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1739,9 +1674,6 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1797,9 +1729,6 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1855,9 +1784,6 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1913,9 +1839,6 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1971,9 +1894,6 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2029,9 +1949,6 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2087,9 +2004,6 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2145,9 +2059,6 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2203,9 +2114,6 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2261,9 +2169,6 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2319,9 +2224,6 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2377,9 +2279,6 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2435,9 +2334,6 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2493,9 +2389,6 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2551,9 +2444,6 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2609,9 +2499,6 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2667,9 +2554,6 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2725,9 +2609,6 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2783,9 +2664,6 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2841,9 +2719,6 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2899,9 +2774,6 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2957,9 +2829,6 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3015,9 +2884,6 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3073,9 +2939,6 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3131,9 +2994,6 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3189,9 +3049,6 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3247,9 +3104,6 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3305,9 +3159,6 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3363,9 +3214,6 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3421,9 +3269,6 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3479,9 +3324,6 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3537,9 +3379,6 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3595,9 +3434,6 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3653,9 +3489,6 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3711,9 +3544,6 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3769,9 +3599,6 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3827,9 +3654,6 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3885,9 +3709,6 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3943,9 +3764,6 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4001,9 +3819,6 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4059,9 +3874,6 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4117,9 +3929,6 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4175,9 +3984,6 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4233,9 +4039,6 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4291,9 +4094,6 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4349,9 +4149,6 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4407,9 +4204,6 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4465,9 +4259,6 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4523,9 +4314,6 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4581,9 +4369,6 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4639,9 +4424,6 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4697,9 +4479,6 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4755,9 +4534,6 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4813,9 +4589,6 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4871,9 +4644,6 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4929,9 +4699,6 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4987,9 +4754,6 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5045,9 +4809,6 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5103,9 +4864,6 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5161,9 +4919,6 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5219,9 +4974,6 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5277,9 +5029,6 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5335,9 +5084,6 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5393,9 +5139,6 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5451,9 +5194,6 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5509,9 +5249,6 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5567,9 +5304,6 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5625,9 +5359,6 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5683,9 +5414,6 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5741,9 +5469,6 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5799,9 +5524,6 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5857,9 +5579,6 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5915,9 +5634,6 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5973,9 +5689,6 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6031,9 +5744,6 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6089,9 +5799,6 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6147,9 +5854,6 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6205,9 +5909,6 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6263,9 +5964,6 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6321,9 +6019,6 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6379,9 +6074,6 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6437,9 +6129,6 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6495,9 +6184,6 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6553,9 +6239,6 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6611,9 +6294,6 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6669,9 +6349,6 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6727,9 +6404,6 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6785,9 +6459,6 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6843,9 +6514,6 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6901,9 +6569,6 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6959,9 +6624,6 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7017,9 +6679,6 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7075,9 +6734,6 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7133,9 +6789,6 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7191,9 +6844,6 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7249,9 +6899,6 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7307,9 +6954,6 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7365,9 +7009,6 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7423,9 +7064,6 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7481,9 +7119,6 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7539,9 +7174,6 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7597,9 +7229,6 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7655,9 +7284,6 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7713,9 +7339,6 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7771,9 +7394,6 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7829,9 +7449,6 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7887,9 +7504,6 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7945,9 +7559,6 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8003,9 +7614,6 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8061,9 +7669,6 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8119,9 +7724,6 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8177,9 +7779,6 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8235,9 +7834,6 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8293,9 +7889,6 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8351,9 +7944,6 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8409,9 +7999,6 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8467,9 +8054,6 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8525,9 +8109,6 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8583,9 +8164,6 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8641,9 +8219,6 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8699,9 +8274,6 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8757,9 +8329,6 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8815,9 +8384,6 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8873,9 +8439,6 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8931,9 +8494,6 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8989,9 +8549,6 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9047,9 +8604,6 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9105,9 +8659,6 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9163,9 +8714,6 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9221,9 +8769,6 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9279,9 +8824,6 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9337,9 +8879,6 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9395,9 +8934,6 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9453,9 +8989,6 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9511,9 +9044,6 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9569,9 +9099,6 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9627,9 +9154,6 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9685,9 +9209,6 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9743,9 +9264,6 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9801,9 +9319,6 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9859,9 +9374,6 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9917,9 +9429,6 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9975,9 +9484,6 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10033,9 +9539,6 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10091,9 +9594,6 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10149,9 +9649,6 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10207,9 +9704,6 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10265,9 +9759,6 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10323,9 +9814,6 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10381,9 +9869,6 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10439,9 +9924,6 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10497,9 +9979,6 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10555,9 +10034,6 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10613,9 +10089,6 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10671,9 +10144,6 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10729,9 +10199,6 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10787,9 +10254,6 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10845,9 +10309,6 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10903,9 +10364,6 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10961,9 +10419,6 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11019,9 +10474,6 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11077,9 +10529,6 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11135,9 +10584,6 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11193,9 +10639,6 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11251,9 +10694,6 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11309,9 +10749,6 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11367,9 +10804,6 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11425,9 +10859,6 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11483,9 +10914,6 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11541,9 +10969,6 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11599,9 +11024,6 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11657,9 +11079,6 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11715,9 +11134,6 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11773,9 +11189,6 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11831,9 +11244,6 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11889,9 +11299,6 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11947,9 +11354,6 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12005,9 +11409,6 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12063,9 +11464,6 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12121,9 +11519,6 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12179,9 +11574,6 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12237,9 +11629,6 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12295,9 +11684,6 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12353,9 +11739,6 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12411,9 +11794,6 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12469,9 +11849,6 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12527,9 +11904,6 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12585,9 +11959,6 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12643,9 +12014,6 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12701,9 +12069,6 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12759,9 +12124,6 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12817,9 +12179,6 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12875,9 +12234,6 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12933,9 +12289,6 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12991,9 +12344,6 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13049,9 +12399,6 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13107,9 +12454,6 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13165,9 +12509,6 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13223,9 +12564,6 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13281,9 +12619,6 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13295,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -13337,9 +12672,6 @@
         <v>0</v>
       </c>
       <c r="Q222" t="n">
-        <v>0</v>
-      </c>
-      <c r="R222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13353,10 +12685,10 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
@@ -13395,9 +12727,6 @@
         <v>0</v>
       </c>
       <c r="Q223" t="n">
-        <v>0</v>
-      </c>
-      <c r="R223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13411,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -13453,9 +12782,6 @@
         <v>0</v>
       </c>
       <c r="Q224" t="n">
-        <v>0</v>
-      </c>
-      <c r="R224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13469,10 +12795,10 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -13511,9 +12837,6 @@
         <v>0</v>
       </c>
       <c r="Q225" t="n">
-        <v>0</v>
-      </c>
-      <c r="R225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13527,10 +12850,10 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -13569,9 +12892,6 @@
         <v>0</v>
       </c>
       <c r="Q226" t="n">
-        <v>0</v>
-      </c>
-      <c r="R226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13585,10 +12905,10 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -13627,9 +12947,6 @@
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>0</v>
-      </c>
-      <c r="R227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13643,10 +12960,10 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
@@ -13685,9 +13002,6 @@
         <v>0</v>
       </c>
       <c r="Q228" t="n">
-        <v>0</v>
-      </c>
-      <c r="R228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13701,10 +13015,10 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -13743,9 +13057,6 @@
         <v>0</v>
       </c>
       <c r="Q229" t="n">
-        <v>0</v>
-      </c>
-      <c r="R229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13759,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -13801,9 +13112,6 @@
         <v>0</v>
       </c>
       <c r="Q230" t="n">
-        <v>0</v>
-      </c>
-      <c r="R230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13817,10 +13125,10 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -13859,9 +13167,6 @@
         <v>0</v>
       </c>
       <c r="Q231" t="n">
-        <v>0</v>
-      </c>
-      <c r="R231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13875,10 +13180,10 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -13917,9 +13222,6 @@
         <v>0</v>
       </c>
       <c r="Q232" t="n">
-        <v>0</v>
-      </c>
-      <c r="R232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13933,10 +13235,10 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -13975,9 +13277,6 @@
         <v>0</v>
       </c>
       <c r="Q233" t="n">
-        <v>0</v>
-      </c>
-      <c r="R233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13991,10 +13290,10 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -14033,9 +13332,6 @@
         <v>0</v>
       </c>
       <c r="Q234" t="n">
-        <v>0</v>
-      </c>
-      <c r="R234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14049,10 +13345,10 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -14091,9 +13387,6 @@
         <v>0</v>
       </c>
       <c r="Q235" t="n">
-        <v>0</v>
-      </c>
-      <c r="R235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14107,10 +13400,10 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -14149,9 +13442,6 @@
         <v>0</v>
       </c>
       <c r="Q236" t="n">
-        <v>0</v>
-      </c>
-      <c r="R236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14165,10 +13455,10 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -14207,9 +13497,6 @@
         <v>0</v>
       </c>
       <c r="Q237" t="n">
-        <v>0</v>
-      </c>
-      <c r="R237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14223,10 +13510,10 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -14265,9 +13552,6 @@
         <v>0</v>
       </c>
       <c r="Q238" t="n">
-        <v>0</v>
-      </c>
-      <c r="R238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14281,10 +13565,10 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -14323,9 +13607,6 @@
         <v>0</v>
       </c>
       <c r="Q239" t="n">
-        <v>0</v>
-      </c>
-      <c r="R239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14339,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -14381,9 +13662,6 @@
         <v>0</v>
       </c>
       <c r="Q240" t="n">
-        <v>0</v>
-      </c>
-      <c r="R240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14397,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -14439,9 +13717,6 @@
         <v>0</v>
       </c>
       <c r="Q241" t="n">
-        <v>0</v>
-      </c>
-      <c r="R241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14451,14 +13726,12 @@
           <t>1442-09-05</t>
         </is>
       </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
+      <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
@@ -14497,9 +13770,6 @@
         <v>0</v>
       </c>
       <c r="Q242" t="n">
-        <v>0</v>
-      </c>
-      <c r="R242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14509,14 +13779,12 @@
           <t>1442-09-06</t>
         </is>
       </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
+      <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D243" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -14555,9 +13823,6 @@
         <v>0</v>
       </c>
       <c r="Q243" t="n">
-        <v>0</v>
-      </c>
-      <c r="R243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14567,14 +13832,12 @@
           <t>1442-09-07</t>
         </is>
       </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
+      <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -14613,9 +13876,6 @@
         <v>0</v>
       </c>
       <c r="Q244" t="n">
-        <v>0</v>
-      </c>
-      <c r="R244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14627,10 +13887,10 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D245" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -14669,9 +13929,6 @@
         <v>0</v>
       </c>
       <c r="Q245" t="n">
-        <v>0</v>
-      </c>
-      <c r="R245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14683,10 +13940,10 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D246" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -14725,9 +13982,6 @@
         <v>0</v>
       </c>
       <c r="Q246" t="n">
-        <v>0</v>
-      </c>
-      <c r="R246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14739,10 +13993,10 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D247" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -14781,9 +14035,6 @@
         <v>0</v>
       </c>
       <c r="Q247" t="n">
-        <v>0</v>
-      </c>
-      <c r="R247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14795,10 +14046,10 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D248" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -14837,9 +14088,6 @@
         <v>0</v>
       </c>
       <c r="Q248" t="n">
-        <v>0</v>
-      </c>
-      <c r="R248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14850,12 +14098,8 @@
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
-        <v>29</v>
-      </c>
-      <c r="D249" t="n">
-        <v>29</v>
-      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
         <v>0</v>
       </c>
@@ -14893,9 +14137,6 @@
         <v>0</v>
       </c>
       <c r="Q249" t="n">
-        <v>0</v>
-      </c>
-      <c r="R249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14906,12 +14147,8 @@
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
-      <c r="C250" t="n">
-        <v>29</v>
-      </c>
-      <c r="D250" t="n">
-        <v>29</v>
-      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
         <v>0</v>
       </c>
@@ -14949,9 +14186,6 @@
         <v>0</v>
       </c>
       <c r="Q250" t="n">
-        <v>0</v>
-      </c>
-      <c r="R250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14962,12 +14196,8 @@
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
-      <c r="C251" t="n">
-        <v>29</v>
-      </c>
-      <c r="D251" t="n">
-        <v>29</v>
-      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
         <v>0</v>
       </c>
@@ -15005,9 +14235,6 @@
         <v>0</v>
       </c>
       <c r="Q251" t="n">
-        <v>0</v>
-      </c>
-      <c r="R251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15019,9 +14246,7 @@
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr"/>
-      <c r="D252" t="n">
-        <v>29</v>
-      </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
         <v>0</v>
       </c>
@@ -15059,9 +14284,6 @@
         <v>0</v>
       </c>
       <c r="Q252" t="n">
-        <v>0</v>
-      </c>
-      <c r="R252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15073,9 +14295,7 @@
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
-      <c r="D253" t="n">
-        <v>29</v>
-      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
         <v>0</v>
       </c>
@@ -15113,9 +14333,6 @@
         <v>0</v>
       </c>
       <c r="Q253" t="n">
-        <v>0</v>
-      </c>
-      <c r="R253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15127,9 +14344,7 @@
       </c>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr"/>
-      <c r="D254" t="n">
-        <v>29</v>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
         <v>0</v>
       </c>
@@ -15167,9 +14382,6 @@
         <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>0</v>
-      </c>
-      <c r="R254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15181,9 +14393,7 @@
       </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
-      <c r="D255" t="n">
-        <v>29</v>
-      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
         <v>0</v>
       </c>
@@ -15221,9 +14431,6 @@
         <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>0</v>
-      </c>
-      <c r="R255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15235,9 +14442,7 @@
       </c>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
-      <c r="D256" t="n">
-        <v>29</v>
-      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
         <v>0</v>
       </c>
@@ -15275,9 +14480,6 @@
         <v>0</v>
       </c>
       <c r="Q256" t="n">
-        <v>0</v>
-      </c>
-      <c r="R256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15329,9 +14531,6 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15381,9 +14580,6 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15433,9 +14629,6 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15485,9 +14678,6 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15537,9 +14727,6 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15589,9 +14776,6 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15641,9 +14825,6 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15661,10 +14842,10 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -15691,9 +14872,6 @@
         <v>0</v>
       </c>
       <c r="Q264" t="n">
-        <v>0</v>
-      </c>
-      <c r="R264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15712,12 +14890,8 @@
       <c r="F265" t="n">
         <v>0</v>
       </c>
-      <c r="G265" t="n">
-        <v>3</v>
-      </c>
-      <c r="H265" t="n">
-        <v>5</v>
-      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
         <v>0</v>
       </c>
@@ -15743,9 +14917,6 @@
         <v>0</v>
       </c>
       <c r="Q265" t="n">
-        <v>0</v>
-      </c>
-      <c r="R265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15764,12 +14935,8 @@
       <c r="F266" t="n">
         <v>0</v>
       </c>
-      <c r="G266" t="n">
-        <v>3</v>
-      </c>
-      <c r="H266" t="n">
-        <v>5</v>
-      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
         <v>0</v>
       </c>
@@ -15795,9 +14962,6 @@
         <v>0</v>
       </c>
       <c r="Q266" t="n">
-        <v>0</v>
-      </c>
-      <c r="R266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15816,12 +14980,8 @@
       <c r="F267" t="n">
         <v>0</v>
       </c>
-      <c r="G267" t="n">
-        <v>3</v>
-      </c>
-      <c r="H267" t="n">
-        <v>5</v>
-      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
         <v>0</v>
       </c>
@@ -15847,9 +15007,6 @@
         <v>0</v>
       </c>
       <c r="Q267" t="n">
-        <v>0</v>
-      </c>
-      <c r="R267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15868,12 +15025,8 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
-      <c r="G268" t="n">
-        <v>3</v>
-      </c>
-      <c r="H268" t="n">
-        <v>5</v>
-      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
         <v>0</v>
       </c>
@@ -15899,9 +15052,6 @@
         <v>0</v>
       </c>
       <c r="Q268" t="n">
-        <v>0</v>
-      </c>
-      <c r="R268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15920,12 +15070,8 @@
       <c r="F269" t="n">
         <v>0</v>
       </c>
-      <c r="G269" t="n">
-        <v>3</v>
-      </c>
-      <c r="H269" t="n">
-        <v>5</v>
-      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
         <v>0</v>
       </c>
@@ -15951,9 +15097,6 @@
         <v>0</v>
       </c>
       <c r="Q269" t="n">
-        <v>0</v>
-      </c>
-      <c r="R269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15972,12 +15115,8 @@
       <c r="F270" t="n">
         <v>0</v>
       </c>
-      <c r="G270" t="n">
-        <v>3</v>
-      </c>
-      <c r="H270" t="n">
-        <v>5</v>
-      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
         <v>0</v>
       </c>
@@ -16003,9 +15142,6 @@
         <v>0</v>
       </c>
       <c r="Q270" t="n">
-        <v>0</v>
-      </c>
-      <c r="R270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16024,12 +15160,8 @@
       <c r="F271" t="n">
         <v>0</v>
       </c>
-      <c r="G271" t="n">
-        <v>3</v>
-      </c>
-      <c r="H271" t="n">
-        <v>5</v>
-      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
         <v>0</v>
       </c>
@@ -16055,9 +15187,6 @@
         <v>0</v>
       </c>
       <c r="Q271" t="n">
-        <v>0</v>
-      </c>
-      <c r="R271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16076,12 +15205,8 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
-      <c r="G272" t="n">
-        <v>3</v>
-      </c>
-      <c r="H272" t="n">
-        <v>5</v>
-      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
         <v>0</v>
       </c>
@@ -16107,9 +15232,6 @@
         <v>0</v>
       </c>
       <c r="Q272" t="n">
-        <v>0</v>
-      </c>
-      <c r="R272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16128,12 +15250,8 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
-      <c r="G273" t="n">
-        <v>3</v>
-      </c>
-      <c r="H273" t="n">
-        <v>5</v>
-      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
         <v>0</v>
       </c>
@@ -16159,9 +15277,6 @@
         <v>0</v>
       </c>
       <c r="Q273" t="n">
-        <v>0</v>
-      </c>
-      <c r="R273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16180,12 +15295,8 @@
       <c r="F274" t="n">
         <v>0</v>
       </c>
-      <c r="G274" t="n">
-        <v>3</v>
-      </c>
-      <c r="H274" t="n">
-        <v>5</v>
-      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
         <v>0</v>
       </c>
@@ -16211,9 +15322,6 @@
         <v>0</v>
       </c>
       <c r="Q274" t="n">
-        <v>0</v>
-      </c>
-      <c r="R274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16232,12 +15340,8 @@
       <c r="F275" t="n">
         <v>0</v>
       </c>
-      <c r="G275" t="n">
-        <v>3</v>
-      </c>
-      <c r="H275" t="n">
-        <v>5</v>
-      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
         <v>0</v>
       </c>
@@ -16263,9 +15367,6 @@
         <v>0</v>
       </c>
       <c r="Q275" t="n">
-        <v>0</v>
-      </c>
-      <c r="R275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16284,12 +15385,8 @@
       <c r="F276" t="n">
         <v>0</v>
       </c>
-      <c r="G276" t="n">
-        <v>3</v>
-      </c>
-      <c r="H276" t="n">
-        <v>5</v>
-      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
         <v>0</v>
       </c>
@@ -16315,9 +15412,6 @@
         <v>0</v>
       </c>
       <c r="Q276" t="n">
-        <v>0</v>
-      </c>
-      <c r="R276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16336,12 +15430,8 @@
       <c r="F277" t="n">
         <v>0</v>
       </c>
-      <c r="G277" t="n">
-        <v>3</v>
-      </c>
-      <c r="H277" t="n">
-        <v>5</v>
-      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
         <v>0</v>
       </c>
@@ -16367,9 +15457,6 @@
         <v>0</v>
       </c>
       <c r="Q277" t="n">
-        <v>0</v>
-      </c>
-      <c r="R277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16389,9 +15476,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="n">
-        <v>5</v>
-      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
         <v>0</v>
       </c>
@@ -16417,9 +15502,6 @@
         <v>0</v>
       </c>
       <c r="Q278" t="n">
-        <v>0</v>
-      </c>
-      <c r="R278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16439,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="n">
-        <v>5</v>
-      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
         <v>0</v>
       </c>
@@ -16467,9 +15547,6 @@
         <v>0</v>
       </c>
       <c r="Q279" t="n">
-        <v>0</v>
-      </c>
-      <c r="R279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16489,14 +15566,12 @@
         <v>0</v>
       </c>
       <c r="G280" t="inlineStr"/>
-      <c r="H280" t="n">
-        <v>5</v>
-      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J280" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K280" t="n">
         <v>0</v>
@@ -16517,9 +15592,6 @@
         <v>0</v>
       </c>
       <c r="Q280" t="n">
-        <v>0</v>
-      </c>
-      <c r="R280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16539,14 +15611,12 @@
         <v>0</v>
       </c>
       <c r="G281" t="inlineStr"/>
-      <c r="H281" t="n">
-        <v>5</v>
-      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -16567,9 +15637,6 @@
         <v>0</v>
       </c>
       <c r="Q281" t="n">
-        <v>0</v>
-      </c>
-      <c r="R281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16589,14 +15656,12 @@
         <v>0</v>
       </c>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="n">
-        <v>5</v>
-      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -16617,9 +15682,6 @@
         <v>0</v>
       </c>
       <c r="Q282" t="n">
-        <v>0</v>
-      </c>
-      <c r="R282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16639,14 +15701,12 @@
         <v>0</v>
       </c>
       <c r="G283" t="inlineStr"/>
-      <c r="H283" t="n">
-        <v>5</v>
-      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -16667,9 +15727,6 @@
         <v>0</v>
       </c>
       <c r="Q283" t="n">
-        <v>0</v>
-      </c>
-      <c r="R283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16689,14 +15746,12 @@
         <v>0</v>
       </c>
       <c r="G284" t="inlineStr"/>
-      <c r="H284" t="n">
-        <v>5</v>
-      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -16717,9 +15772,6 @@
         <v>0</v>
       </c>
       <c r="Q284" t="n">
-        <v>0</v>
-      </c>
-      <c r="R284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16739,14 +15791,12 @@
         <v>0</v>
       </c>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="n">
-        <v>5</v>
-      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -16767,9 +15817,6 @@
         <v>0</v>
       </c>
       <c r="Q285" t="n">
-        <v>0</v>
-      </c>
-      <c r="R285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16791,10 +15838,10 @@
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -16815,9 +15862,6 @@
         <v>0</v>
       </c>
       <c r="Q286" t="n">
-        <v>0</v>
-      </c>
-      <c r="R286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16839,10 +15883,10 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -16863,9 +15907,6 @@
         <v>0</v>
       </c>
       <c r="Q287" t="n">
-        <v>0</v>
-      </c>
-      <c r="R287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16887,10 +15928,10 @@
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -16911,9 +15952,6 @@
         <v>0</v>
       </c>
       <c r="Q288" t="n">
-        <v>0</v>
-      </c>
-      <c r="R288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16934,11 +15972,9 @@
       </c>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -16959,9 +15995,6 @@
         <v>0</v>
       </c>
       <c r="Q289" t="n">
-        <v>0</v>
-      </c>
-      <c r="R289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16982,11 +16015,9 @@
       </c>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -17007,9 +16038,6 @@
         <v>0</v>
       </c>
       <c r="Q290" t="n">
-        <v>0</v>
-      </c>
-      <c r="R290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17030,11 +16058,9 @@
       </c>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
-      <c r="I291" t="n">
-        <v>2</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -17055,9 +16081,6 @@
         <v>0</v>
       </c>
       <c r="Q291" t="n">
-        <v>0</v>
-      </c>
-      <c r="R291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17078,11 +16101,9 @@
       </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
@@ -17103,9 +16124,6 @@
         <v>0</v>
       </c>
       <c r="Q292" t="n">
-        <v>0</v>
-      </c>
-      <c r="R292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17126,11 +16144,9 @@
       </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="n">
-        <v>2</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
@@ -17151,9 +16167,6 @@
         <v>0</v>
       </c>
       <c r="Q293" t="n">
-        <v>0</v>
-      </c>
-      <c r="R293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17176,7 +16189,7 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K294" t="n">
         <v>0</v>
@@ -17197,9 +16210,6 @@
         <v>0</v>
       </c>
       <c r="Q294" t="n">
-        <v>0</v>
-      </c>
-      <c r="R294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17222,7 +16232,7 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K295" t="n">
         <v>0</v>
@@ -17243,9 +16253,6 @@
         <v>0</v>
       </c>
       <c r="Q295" t="n">
-        <v>0</v>
-      </c>
-      <c r="R295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17268,7 +16275,7 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K296" t="n">
         <v>0</v>
@@ -17289,9 +16296,6 @@
         <v>0</v>
       </c>
       <c r="Q296" t="n">
-        <v>0</v>
-      </c>
-      <c r="R296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17313,7 +16317,9 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="n">
         <v>0</v>
       </c>
@@ -17333,9 +16339,6 @@
         <v>0</v>
       </c>
       <c r="Q297" t="n">
-        <v>0</v>
-      </c>
-      <c r="R297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17357,7 +16360,9 @@
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="n">
         <v>0</v>
       </c>
@@ -17377,9 +16382,6 @@
         <v>0</v>
       </c>
       <c r="Q298" t="n">
-        <v>0</v>
-      </c>
-      <c r="R298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17401,7 +16403,9 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="n">
         <v>0</v>
       </c>
@@ -17421,9 +16425,6 @@
         <v>0</v>
       </c>
       <c r="Q299" t="n">
-        <v>0</v>
-      </c>
-      <c r="R299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17445,7 +16446,9 @@
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="n">
         <v>0</v>
       </c>
@@ -17465,9 +16468,6 @@
         <v>0</v>
       </c>
       <c r="Q300" t="n">
-        <v>0</v>
-      </c>
-      <c r="R300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17489,7 +16489,9 @@
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="n">
         <v>0</v>
       </c>
@@ -17509,9 +16511,6 @@
         <v>0</v>
       </c>
       <c r="Q301" t="n">
-        <v>0</v>
-      </c>
-      <c r="R301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17533,7 +16532,9 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="n">
         <v>0</v>
       </c>
@@ -17553,9 +16554,6 @@
         <v>0</v>
       </c>
       <c r="Q302" t="n">
-        <v>0</v>
-      </c>
-      <c r="R302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17577,12 +16575,14 @@
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="n">
         <v>0</v>
       </c>
       <c r="L303" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M303" t="n">
         <v>0</v>
@@ -17597,9 +16597,6 @@
         <v>0</v>
       </c>
       <c r="Q303" t="n">
-        <v>0</v>
-      </c>
-      <c r="R303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17621,12 +16618,14 @@
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="n">
         <v>0</v>
       </c>
       <c r="L304" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M304" t="n">
         <v>0</v>
@@ -17641,9 +16640,6 @@
         <v>0</v>
       </c>
       <c r="Q304" t="n">
-        <v>0</v>
-      </c>
-      <c r="R304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17665,12 +16661,14 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="n">
         <v>0</v>
       </c>
       <c r="L305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
         <v>0</v>
@@ -17685,9 +16683,6 @@
         <v>0</v>
       </c>
       <c r="Q305" t="n">
-        <v>0</v>
-      </c>
-      <c r="R305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17709,13 +16704,11 @@
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>0</v>
-      </c>
-      <c r="L306" t="n">
-        <v>7</v>
-      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>0</v>
       </c>
@@ -17729,9 +16722,6 @@
         <v>0</v>
       </c>
       <c r="Q306" t="n">
-        <v>0</v>
-      </c>
-      <c r="R306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17753,13 +16743,11 @@
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>0</v>
-      </c>
-      <c r="L307" t="n">
-        <v>7</v>
-      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>0</v>
       </c>
@@ -17773,9 +16761,6 @@
         <v>0</v>
       </c>
       <c r="Q307" t="n">
-        <v>0</v>
-      </c>
-      <c r="R307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17797,13 +16782,11 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>0</v>
-      </c>
-      <c r="L308" t="n">
-        <v>7</v>
-      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>0</v>
       </c>
@@ -17817,9 +16800,6 @@
         <v>0</v>
       </c>
       <c r="Q308" t="n">
-        <v>0</v>
-      </c>
-      <c r="R308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17841,13 +16821,11 @@
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>0</v>
-      </c>
-      <c r="L309" t="n">
-        <v>7</v>
-      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>0</v>
       </c>
@@ -17861,9 +16839,6 @@
         <v>0</v>
       </c>
       <c r="Q309" t="n">
-        <v>0</v>
-      </c>
-      <c r="R309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17885,13 +16860,11 @@
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>0</v>
-      </c>
-      <c r="L310" t="n">
-        <v>7</v>
-      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>0</v>
       </c>
@@ -17905,9 +16878,6 @@
         <v>0</v>
       </c>
       <c r="Q310" t="n">
-        <v>0</v>
-      </c>
-      <c r="R310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17929,13 +16899,11 @@
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>0</v>
-      </c>
-      <c r="L311" t="n">
-        <v>7</v>
-      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>0</v>
       </c>
@@ -17949,9 +16917,6 @@
         <v>0</v>
       </c>
       <c r="Q311" t="n">
-        <v>0</v>
-      </c>
-      <c r="R311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17973,13 +16938,11 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>0</v>
-      </c>
-      <c r="L312" t="n">
-        <v>7</v>
-      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>0</v>
       </c>
@@ -17993,9 +16956,6 @@
         <v>0</v>
       </c>
       <c r="Q312" t="n">
-        <v>0</v>
-      </c>
-      <c r="R312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18017,10 +16977,10 @@
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>0</v>
-      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>0</v>
@@ -18035,9 +16995,6 @@
         <v>0</v>
       </c>
       <c r="Q313" t="n">
-        <v>0</v>
-      </c>
-      <c r="R313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18059,10 +17016,10 @@
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>0</v>
-      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>0</v>
@@ -18077,9 +17034,6 @@
         <v>0</v>
       </c>
       <c r="Q314" t="n">
-        <v>0</v>
-      </c>
-      <c r="R314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18101,10 +17055,10 @@
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>0</v>
-      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>0</v>
@@ -18119,9 +17073,6 @@
         <v>0</v>
       </c>
       <c r="Q315" t="n">
-        <v>0</v>
-      </c>
-      <c r="R315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18143,10 +17094,10 @@
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>0</v>
-      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>0</v>
@@ -18161,9 +17112,6 @@
         <v>0</v>
       </c>
       <c r="Q316" t="n">
-        <v>0</v>
-      </c>
-      <c r="R316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18185,10 +17133,10 @@
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>0</v>
-      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>0</v>
@@ -18203,9 +17151,6 @@
         <v>0</v>
       </c>
       <c r="Q317" t="n">
-        <v>0</v>
-      </c>
-      <c r="R317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18227,10 +17172,10 @@
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>0</v>
-      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>0</v>
@@ -18245,9 +17190,6 @@
         <v>0</v>
       </c>
       <c r="Q318" t="n">
-        <v>0</v>
-      </c>
-      <c r="R318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18269,10 +17211,10 @@
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>0</v>
-      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>0</v>
@@ -18287,9 +17229,6 @@
         <v>0</v>
       </c>
       <c r="Q319" t="n">
-        <v>0</v>
-      </c>
-      <c r="R319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18311,10 +17250,10 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>0</v>
-      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>0</v>
@@ -18329,9 +17268,6 @@
         <v>0</v>
       </c>
       <c r="Q320" t="n">
-        <v>0</v>
-      </c>
-      <c r="R320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18353,10 +17289,10 @@
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>0</v>
-      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>0</v>
@@ -18371,9 +17307,6 @@
         <v>0</v>
       </c>
       <c r="Q321" t="n">
-        <v>0</v>
-      </c>
-      <c r="R321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18395,10 +17328,10 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>0</v>
-      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>0</v>
@@ -18413,9 +17346,6 @@
         <v>0</v>
       </c>
       <c r="Q322" t="n">
-        <v>0</v>
-      </c>
-      <c r="R322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18437,10 +17367,10 @@
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>0</v>
-      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>0</v>
@@ -18455,9 +17385,6 @@
         <v>0</v>
       </c>
       <c r="Q323" t="n">
-        <v>0</v>
-      </c>
-      <c r="R323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18479,10 +17406,10 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>0</v>
-      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>0</v>
@@ -18497,9 +17424,6 @@
         <v>0</v>
       </c>
       <c r="Q324" t="n">
-        <v>0</v>
-      </c>
-      <c r="R324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18521,10 +17445,10 @@
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>0</v>
-      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>0</v>
@@ -18539,9 +17463,6 @@
         <v>0</v>
       </c>
       <c r="Q325" t="n">
-        <v>0</v>
-      </c>
-      <c r="R325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18563,10 +17484,10 @@
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>0</v>
-      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>0</v>
@@ -18581,9 +17502,6 @@
         <v>0</v>
       </c>
       <c r="Q326" t="n">
-        <v>0</v>
-      </c>
-      <c r="R326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18605,10 +17523,10 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>0</v>
-      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>0</v>
@@ -18623,9 +17541,6 @@
         <v>0</v>
       </c>
       <c r="Q327" t="n">
-        <v>0</v>
-      </c>
-      <c r="R327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18647,10 +17562,10 @@
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>0</v>
-      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>0</v>
@@ -18665,9 +17580,6 @@
         <v>0</v>
       </c>
       <c r="Q328" t="n">
-        <v>0</v>
-      </c>
-      <c r="R328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18689,10 +17601,10 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>0</v>
-      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>0</v>
@@ -18707,9 +17619,6 @@
         <v>0</v>
       </c>
       <c r="Q329" t="n">
-        <v>0</v>
-      </c>
-      <c r="R329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18731,10 +17640,10 @@
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>0</v>
-      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>0</v>
@@ -18749,9 +17658,6 @@
         <v>0</v>
       </c>
       <c r="Q330" t="n">
-        <v>0</v>
-      </c>
-      <c r="R330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18773,10 +17679,10 @@
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>0</v>
-      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>0</v>
@@ -18791,9 +17697,6 @@
         <v>0</v>
       </c>
       <c r="Q331" t="n">
-        <v>0</v>
-      </c>
-      <c r="R331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18815,10 +17718,10 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>0</v>
-      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>0</v>
@@ -18833,9 +17736,6 @@
         <v>0</v>
       </c>
       <c r="Q332" t="n">
-        <v>0</v>
-      </c>
-      <c r="R332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18857,10 +17757,10 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>0</v>
-      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>0</v>
@@ -18875,9 +17775,6 @@
         <v>0</v>
       </c>
       <c r="Q333" t="n">
-        <v>0</v>
-      </c>
-      <c r="R333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18899,10 +17796,10 @@
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>0</v>
-      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>0</v>
@@ -18917,9 +17814,6 @@
         <v>0</v>
       </c>
       <c r="Q334" t="n">
-        <v>0</v>
-      </c>
-      <c r="R334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18941,10 +17835,10 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>0</v>
-      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>0</v>
@@ -18959,9 +17853,6 @@
         <v>0</v>
       </c>
       <c r="Q335" t="n">
-        <v>0</v>
-      </c>
-      <c r="R335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18983,10 +17874,10 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>0</v>
-      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>0</v>
@@ -19001,9 +17892,6 @@
         <v>0</v>
       </c>
       <c r="Q336" t="n">
-        <v>0</v>
-      </c>
-      <c r="R336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19025,10 +17913,10 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>0</v>
-      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>0</v>
@@ -19043,9 +17931,6 @@
         <v>0</v>
       </c>
       <c r="Q337" t="n">
-        <v>0</v>
-      </c>
-      <c r="R337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19067,10 +17952,10 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>0</v>
-      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>0</v>
@@ -19085,9 +17970,6 @@
         <v>0</v>
       </c>
       <c r="Q338" t="n">
-        <v>0</v>
-      </c>
-      <c r="R338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19109,10 +17991,10 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>0</v>
-      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>0</v>
@@ -19127,9 +18009,6 @@
         <v>0</v>
       </c>
       <c r="Q339" t="n">
-        <v>0</v>
-      </c>
-      <c r="R339" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19151,10 +18030,10 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>0</v>
-      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>0</v>
@@ -19169,9 +18048,6 @@
         <v>0</v>
       </c>
       <c r="Q340" t="n">
-        <v>0</v>
-      </c>
-      <c r="R340" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19193,10 +18069,10 @@
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>0</v>
-      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>0</v>
@@ -19211,9 +18087,6 @@
         <v>0</v>
       </c>
       <c r="Q341" t="n">
-        <v>0</v>
-      </c>
-      <c r="R341" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19235,10 +18108,10 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>0</v>
-      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>0</v>
@@ -19253,10 +18126,7 @@
         <v>0</v>
       </c>
       <c r="Q342" t="n">
-        <v>3</v>
-      </c>
-      <c r="R342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -19277,10 +18147,10 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>0</v>
-      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>0</v>
@@ -19291,15 +18161,8 @@
       <c r="O343" t="n">
         <v>0</v>
       </c>
-      <c r="P343" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q343" t="n">
-        <v>3</v>
-      </c>
-      <c r="R343" t="n">
-        <v>1</v>
-      </c>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19319,10 +18182,10 @@
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>0</v>
-      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>0</v>
@@ -19333,15 +18196,8 @@
       <c r="O344" t="n">
         <v>0</v>
       </c>
-      <c r="P344" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q344" t="n">
-        <v>3</v>
-      </c>
-      <c r="R344" t="n">
-        <v>1</v>
-      </c>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19361,10 +18217,10 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>0</v>
-      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>0</v>
@@ -19375,15 +18231,8 @@
       <c r="O345" t="n">
         <v>0</v>
       </c>
-      <c r="P345" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q345" t="n">
-        <v>3</v>
-      </c>
-      <c r="R345" t="n">
-        <v>1</v>
-      </c>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19403,10 +18252,10 @@
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>0</v>
-      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>0</v>
@@ -19417,15 +18266,8 @@
       <c r="O346" t="n">
         <v>0</v>
       </c>
-      <c r="P346" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q346" t="n">
-        <v>3</v>
-      </c>
-      <c r="R346" t="n">
-        <v>1</v>
-      </c>
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19445,10 +18287,10 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>0</v>
-      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>0</v>
@@ -19459,15 +18301,8 @@
       <c r="O347" t="n">
         <v>0</v>
       </c>
-      <c r="P347" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q347" t="n">
-        <v>3</v>
-      </c>
-      <c r="R347" t="n">
-        <v>1</v>
-      </c>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19487,10 +18322,10 @@
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>0</v>
-      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>0</v>
@@ -19501,15 +18336,8 @@
       <c r="O348" t="n">
         <v>0</v>
       </c>
-      <c r="P348" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q348" t="n">
-        <v>3</v>
-      </c>
-      <c r="R348" t="n">
-        <v>1</v>
-      </c>
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19529,10 +18357,10 @@
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>0</v>
-      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>0</v>
@@ -19543,15 +18371,8 @@
       <c r="O349" t="n">
         <v>0</v>
       </c>
-      <c r="P349" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q349" t="n">
-        <v>3</v>
-      </c>
-      <c r="R349" t="n">
-        <v>1</v>
-      </c>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19571,10 +18392,10 @@
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>0</v>
-      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>0</v>
@@ -19585,13 +18406,8 @@
       <c r="O350" t="n">
         <v>0</v>
       </c>
-      <c r="P350" t="n">
-        <v>0</v>
-      </c>
+      <c r="P350" t="inlineStr"/>
       <c r="Q350" t="inlineStr"/>
-      <c r="R350" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19611,10 +18427,10 @@
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>0</v>
-      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>0</v>
@@ -19625,11 +18441,8 @@
       <c r="O351" t="n">
         <v>0</v>
       </c>
-      <c r="P351" t="n">
-        <v>0</v>
-      </c>
+      <c r="P351" t="inlineStr"/>
       <c r="Q351" t="inlineStr"/>
-      <c r="R351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19649,10 +18462,10 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>0</v>
-      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>0</v>
@@ -19663,11 +18476,8 @@
       <c r="O352" t="n">
         <v>0</v>
       </c>
-      <c r="P352" t="n">
-        <v>0</v>
-      </c>
+      <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr"/>
-      <c r="R352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19687,10 +18497,10 @@
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>0</v>
-      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>0</v>
@@ -19701,11 +18511,8 @@
       <c r="O353" t="n">
         <v>0</v>
       </c>
-      <c r="P353" t="n">
-        <v>0</v>
-      </c>
+      <c r="P353" t="inlineStr"/>
       <c r="Q353" t="inlineStr"/>
-      <c r="R353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19725,10 +18532,10 @@
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>0</v>
-      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>0</v>
@@ -19739,11 +18546,8 @@
       <c r="O354" t="n">
         <v>0</v>
       </c>
-      <c r="P354" t="n">
-        <v>0</v>
-      </c>
+      <c r="P354" t="inlineStr"/>
       <c r="Q354" t="inlineStr"/>
-      <c r="R354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19763,10 +18567,10 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>0</v>
-      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>0</v>
@@ -19777,11 +18581,8 @@
       <c r="O355" t="n">
         <v>0</v>
       </c>
-      <c r="P355" t="n">
-        <v>0</v>
-      </c>
+      <c r="P355" t="inlineStr"/>
       <c r="Q355" t="inlineStr"/>
-      <c r="R355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19801,10 +18602,10 @@
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>0</v>
-      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>0</v>
@@ -19815,11 +18616,8 @@
       <c r="O356" t="n">
         <v>0</v>
       </c>
-      <c r="P356" t="n">
-        <v>0</v>
-      </c>
+      <c r="P356" t="inlineStr"/>
       <c r="Q356" t="inlineStr"/>
-      <c r="R356" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/util-res-task/weekly_target_dates_accum_df_1.xlsx
+++ b/util-res-task/weekly_target_dates_accum_df_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q356"/>
+  <dimension ref="A1:Q357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1442-01-01</t>
+          <t>1443-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -578,7 +578,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1442-01-02</t>
+          <t>1443-01-02</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -633,7 +633,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1442-01-03</t>
+          <t>1443-01-03</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -688,7 +688,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1442-01-04</t>
+          <t>1443-01-04</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -743,7 +743,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1442-01-05</t>
+          <t>1443-01-05</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -798,7 +798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1442-01-06</t>
+          <t>1443-01-06</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -853,7 +853,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1442-01-07</t>
+          <t>1443-01-07</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -908,7 +908,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1442-01-08</t>
+          <t>1443-01-08</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -963,7 +963,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1442-01-09</t>
+          <t>1443-01-09</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1018,7 +1018,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1442-01-10</t>
+          <t>1443-01-10</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1073,7 +1073,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1442-01-11</t>
+          <t>1443-01-11</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1128,7 +1128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1442-01-12</t>
+          <t>1443-01-12</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1183,7 +1183,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1442-01-13</t>
+          <t>1443-01-13</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1238,7 +1238,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1442-01-14</t>
+          <t>1443-01-14</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1293,7 +1293,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1442-01-15</t>
+          <t>1443-01-15</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1348,7 +1348,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1442-01-16</t>
+          <t>1443-01-16</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1403,7 +1403,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1442-01-17</t>
+          <t>1443-01-17</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1458,7 +1458,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1442-01-18</t>
+          <t>1443-01-18</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1513,7 +1513,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1442-01-19</t>
+          <t>1443-01-19</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1568,7 +1568,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1442-01-20</t>
+          <t>1443-01-20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1623,7 +1623,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1442-01-21</t>
+          <t>1443-01-21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1678,7 +1678,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1442-01-22</t>
+          <t>1443-01-22</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1733,7 +1733,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1442-01-23</t>
+          <t>1443-01-23</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1788,7 +1788,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1442-01-24</t>
+          <t>1443-01-24</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1843,7 +1843,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1442-01-25</t>
+          <t>1443-01-25</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1898,7 +1898,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1442-01-26</t>
+          <t>1443-01-26</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1953,7 +1953,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1442-01-27</t>
+          <t>1443-01-27</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2008,7 +2008,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1442-01-28</t>
+          <t>1443-01-28</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2063,7 +2063,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1442-01-29</t>
+          <t>1443-01-29</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2118,7 +2118,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1442-02-01</t>
+          <t>1443-01-30</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2173,7 +2173,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1442-02-02</t>
+          <t>1443-02-01</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2228,7 +2228,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1442-02-03</t>
+          <t>1443-02-02</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2283,7 +2283,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1442-02-04</t>
+          <t>1443-02-03</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2338,7 +2338,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1442-02-05</t>
+          <t>1443-02-04</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2393,7 +2393,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1442-02-06</t>
+          <t>1443-02-05</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2448,7 +2448,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1442-02-07</t>
+          <t>1443-02-06</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2503,7 +2503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1442-02-08</t>
+          <t>1443-02-07</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2558,7 +2558,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1442-02-09</t>
+          <t>1443-02-08</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2613,7 +2613,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1442-02-10</t>
+          <t>1443-02-09</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2668,7 +2668,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1442-02-11</t>
+          <t>1443-02-10</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2723,7 +2723,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1442-02-12</t>
+          <t>1443-02-11</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2778,7 +2778,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1442-02-13</t>
+          <t>1443-02-12</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2833,7 +2833,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1442-02-14</t>
+          <t>1443-02-13</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2888,7 +2888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1442-02-15</t>
+          <t>1443-02-14</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2943,7 +2943,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1442-02-16</t>
+          <t>1443-02-15</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2998,7 +2998,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1442-02-17</t>
+          <t>1443-02-16</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3053,7 +3053,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1442-02-18</t>
+          <t>1443-02-17</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3108,7 +3108,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1442-02-19</t>
+          <t>1443-02-18</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3163,7 +3163,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1442-02-20</t>
+          <t>1443-02-19</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3218,7 +3218,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1442-02-21</t>
+          <t>1443-02-20</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3273,7 +3273,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1442-02-22</t>
+          <t>1443-02-21</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3328,7 +3328,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1442-02-23</t>
+          <t>1443-02-22</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3383,7 +3383,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1442-02-24</t>
+          <t>1443-02-23</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3438,7 +3438,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1442-02-25</t>
+          <t>1443-02-24</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3493,7 +3493,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1442-02-26</t>
+          <t>1443-02-25</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3548,7 +3548,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1442-02-27</t>
+          <t>1443-02-26</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3603,7 +3603,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1442-02-28</t>
+          <t>1443-02-27</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3658,7 +3658,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1442-02-29</t>
+          <t>1443-02-28</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3713,7 +3713,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1442-02-30</t>
+          <t>1443-02-29</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3768,7 +3768,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1442-03-01</t>
+          <t>1443-03-01</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3823,7 +3823,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1442-03-02</t>
+          <t>1443-03-02</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3878,7 +3878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1442-03-03</t>
+          <t>1443-03-03</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3933,7 +3933,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1442-03-04</t>
+          <t>1443-03-04</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3988,7 +3988,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1442-03-05</t>
+          <t>1443-03-05</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4043,7 +4043,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1442-03-06</t>
+          <t>1443-03-06</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4098,7 +4098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1442-03-07</t>
+          <t>1443-03-07</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4153,7 +4153,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1442-03-08</t>
+          <t>1443-03-08</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -4208,7 +4208,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1442-03-09</t>
+          <t>1443-03-09</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -4263,7 +4263,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1442-03-10</t>
+          <t>1443-03-10</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4318,7 +4318,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1442-03-11</t>
+          <t>1443-03-11</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -4373,7 +4373,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1442-03-12</t>
+          <t>1443-03-12</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -4428,7 +4428,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1442-03-13</t>
+          <t>1443-03-13</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4483,7 +4483,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1442-03-14</t>
+          <t>1443-03-14</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -4538,7 +4538,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1442-03-15</t>
+          <t>1443-03-15</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4593,7 +4593,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1442-03-16</t>
+          <t>1443-03-16</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4648,7 +4648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1442-03-17</t>
+          <t>1443-03-17</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4703,7 +4703,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1442-03-18</t>
+          <t>1443-03-18</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4758,7 +4758,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1442-03-19</t>
+          <t>1443-03-19</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4813,7 +4813,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1442-03-20</t>
+          <t>1443-03-20</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4868,7 +4868,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1442-03-21</t>
+          <t>1443-03-21</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4923,7 +4923,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1442-03-22</t>
+          <t>1443-03-22</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4978,7 +4978,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1442-03-23</t>
+          <t>1443-03-23</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -5033,7 +5033,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1442-03-24</t>
+          <t>1443-03-24</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -5088,7 +5088,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1442-03-25</t>
+          <t>1443-03-25</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -5143,7 +5143,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1442-03-26</t>
+          <t>1443-03-26</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -5198,7 +5198,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1442-03-27</t>
+          <t>1443-03-27</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -5253,7 +5253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1442-03-28</t>
+          <t>1443-03-28</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -5308,7 +5308,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1442-03-29</t>
+          <t>1443-03-29</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -5363,7 +5363,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1442-04-01</t>
+          <t>1443-03-30</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -5418,7 +5418,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1442-04-02</t>
+          <t>1443-04-01</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -5473,7 +5473,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1442-04-03</t>
+          <t>1443-04-02</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -5528,7 +5528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1442-04-04</t>
+          <t>1443-04-03</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -5583,7 +5583,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1442-04-05</t>
+          <t>1443-04-04</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -5638,7 +5638,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1442-04-06</t>
+          <t>1443-04-05</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -5693,7 +5693,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1442-04-07</t>
+          <t>1443-04-06</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -5748,7 +5748,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1442-04-08</t>
+          <t>1443-04-07</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -5803,7 +5803,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1442-04-09</t>
+          <t>1443-04-08</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -5858,7 +5858,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1442-04-10</t>
+          <t>1443-04-09</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -5913,7 +5913,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1442-04-11</t>
+          <t>1443-04-10</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -5968,7 +5968,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1442-04-12</t>
+          <t>1443-04-11</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -6023,7 +6023,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1442-04-13</t>
+          <t>1443-04-12</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -6078,7 +6078,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1442-04-14</t>
+          <t>1443-04-13</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -6133,7 +6133,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1442-04-15</t>
+          <t>1443-04-14</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -6188,7 +6188,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1442-04-16</t>
+          <t>1443-04-15</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -6243,7 +6243,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1442-04-17</t>
+          <t>1443-04-16</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -6298,7 +6298,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1442-04-18</t>
+          <t>1443-04-17</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -6353,7 +6353,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1442-04-19</t>
+          <t>1443-04-18</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -6408,7 +6408,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1442-04-20</t>
+          <t>1443-04-19</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -6463,7 +6463,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1442-04-21</t>
+          <t>1443-04-20</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -6518,7 +6518,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1442-04-22</t>
+          <t>1443-04-21</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -6573,7 +6573,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1442-04-23</t>
+          <t>1443-04-22</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -6628,7 +6628,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1442-04-24</t>
+          <t>1443-04-23</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -6683,7 +6683,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1442-04-25</t>
+          <t>1443-04-24</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -6738,7 +6738,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1442-04-26</t>
+          <t>1443-04-25</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -6793,7 +6793,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1442-04-27</t>
+          <t>1443-04-26</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -6848,7 +6848,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1442-04-28</t>
+          <t>1443-04-27</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -6903,7 +6903,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1442-04-29</t>
+          <t>1443-04-28</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -6958,7 +6958,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1442-04-30</t>
+          <t>1443-04-29</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -7013,7 +7013,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1442-05-01</t>
+          <t>1443-05-01</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -7068,7 +7068,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1442-05-02</t>
+          <t>1443-05-02</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -7123,7 +7123,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1442-05-03</t>
+          <t>1443-05-03</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -7178,7 +7178,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1442-05-04</t>
+          <t>1443-05-04</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -7233,7 +7233,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1442-05-05</t>
+          <t>1443-05-05</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -7288,7 +7288,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1442-05-06</t>
+          <t>1443-05-06</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -7343,7 +7343,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1442-05-07</t>
+          <t>1443-05-07</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -7398,7 +7398,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1442-05-08</t>
+          <t>1443-05-08</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -7453,7 +7453,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1442-05-09</t>
+          <t>1443-05-09</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -7508,7 +7508,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1442-05-10</t>
+          <t>1443-05-10</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -7563,7 +7563,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1442-05-11</t>
+          <t>1443-05-11</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -7618,7 +7618,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1442-05-12</t>
+          <t>1443-05-12</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -7673,7 +7673,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1442-05-13</t>
+          <t>1443-05-13</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -7728,7 +7728,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1442-05-14</t>
+          <t>1443-05-14</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -7783,7 +7783,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1442-05-15</t>
+          <t>1443-05-15</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -7838,11 +7838,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1442-05-16</t>
+          <t>1443-05-16</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -7893,7 +7893,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1442-05-17</t>
+          <t>1443-05-17</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -7948,7 +7948,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1442-05-18</t>
+          <t>1443-05-18</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -8003,7 +8003,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1442-05-19</t>
+          <t>1443-05-19</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -8058,7 +8058,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1442-05-20</t>
+          <t>1443-05-20</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -8113,7 +8113,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1442-05-21</t>
+          <t>1443-05-21</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -8168,7 +8168,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1442-05-22</t>
+          <t>1443-05-22</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -8223,7 +8223,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1442-05-23</t>
+          <t>1443-05-23</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -8278,7 +8278,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1442-05-24</t>
+          <t>1443-05-24</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -8333,7 +8333,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1442-05-25</t>
+          <t>1443-05-25</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -8388,7 +8388,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1442-05-26</t>
+          <t>1443-05-26</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -8443,7 +8443,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1442-05-27</t>
+          <t>1443-05-27</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -8498,7 +8498,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1442-05-28</t>
+          <t>1443-05-28</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -8553,7 +8553,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1442-05-29</t>
+          <t>1443-05-29</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -8608,7 +8608,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1442-06-01</t>
+          <t>1443-05-30</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -8663,7 +8663,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1442-06-02</t>
+          <t>1443-06-01</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -8718,7 +8718,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1442-06-03</t>
+          <t>1443-06-02</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -8773,7 +8773,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1442-06-04</t>
+          <t>1443-06-03</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -8828,7 +8828,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1442-06-05</t>
+          <t>1443-06-04</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -8883,7 +8883,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1442-06-06</t>
+          <t>1443-06-05</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -8938,7 +8938,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1442-06-07</t>
+          <t>1443-06-06</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -8993,7 +8993,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1442-06-08</t>
+          <t>1443-06-07</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -9048,7 +9048,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1442-06-09</t>
+          <t>1443-06-08</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -9103,7 +9103,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1442-06-10</t>
+          <t>1443-06-09</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -9158,7 +9158,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1442-06-11</t>
+          <t>1443-06-10</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -9213,7 +9213,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1442-06-12</t>
+          <t>1443-06-11</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -9268,7 +9268,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1442-06-13</t>
+          <t>1443-06-12</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -9323,7 +9323,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1442-06-14</t>
+          <t>1443-06-13</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -9378,7 +9378,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1442-06-15</t>
+          <t>1443-06-14</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -9433,7 +9433,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1442-06-16</t>
+          <t>1443-06-15</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -9488,7 +9488,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1442-06-17</t>
+          <t>1443-06-16</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -9543,7 +9543,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1442-06-18</t>
+          <t>1443-06-17</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -9598,7 +9598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1442-06-19</t>
+          <t>1443-06-18</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -9653,7 +9653,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1442-06-20</t>
+          <t>1443-06-19</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -9708,7 +9708,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1442-06-21</t>
+          <t>1443-06-20</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -9763,7 +9763,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1442-06-22</t>
+          <t>1443-06-21</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -9818,7 +9818,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1442-06-23</t>
+          <t>1443-06-22</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -9873,7 +9873,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1442-06-24</t>
+          <t>1443-06-23</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -9928,7 +9928,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1442-06-25</t>
+          <t>1443-06-24</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -9983,7 +9983,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1442-06-26</t>
+          <t>1443-06-25</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -10038,7 +10038,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1442-06-27</t>
+          <t>1443-06-26</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -10093,7 +10093,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1442-06-28</t>
+          <t>1443-06-27</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -10148,7 +10148,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1442-06-29</t>
+          <t>1443-06-28</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -10203,11 +10203,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1442-06-30</t>
+          <t>1443-06-29</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -10258,7 +10258,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1442-07-01</t>
+          <t>1443-07-01</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -10313,7 +10313,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1442-07-02</t>
+          <t>1443-07-02</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -10368,7 +10368,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1442-07-03</t>
+          <t>1443-07-03</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -10423,7 +10423,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1442-07-04</t>
+          <t>1443-07-04</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -10478,7 +10478,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1442-07-05</t>
+          <t>1443-07-05</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -10533,11 +10533,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1442-07-06</t>
+          <t>1443-07-06</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -10588,14 +10588,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1442-07-07</t>
+          <t>1443-07-07</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -10643,7 +10643,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1442-07-08</t>
+          <t>1443-07-08</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -10698,7 +10698,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1442-07-09</t>
+          <t>1443-07-09</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -10753,7 +10753,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1442-07-10</t>
+          <t>1443-07-10</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -10808,11 +10808,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1442-07-11</t>
+          <t>1443-07-11</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -10863,7 +10863,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1442-07-12</t>
+          <t>1443-07-12</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -10918,7 +10918,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1442-07-13</t>
+          <t>1443-07-13</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -10973,11 +10973,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1442-07-14</t>
+          <t>1443-07-14</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -11028,7 +11028,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1442-07-15</t>
+          <t>1443-07-15</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -11083,7 +11083,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1442-07-16</t>
+          <t>1443-07-16</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -11138,7 +11138,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1442-07-17</t>
+          <t>1443-07-17</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -11193,11 +11193,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1442-07-18</t>
+          <t>1443-07-18</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -11248,11 +11248,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1442-07-19</t>
+          <t>1443-07-19</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -11303,11 +11303,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1442-07-20</t>
+          <t>1443-07-20</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -11358,11 +11358,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1442-07-21</t>
+          <t>1443-07-21</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -11371,10 +11371,10 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -11413,7 +11413,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1442-07-22</t>
+          <t>1443-07-22</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -11468,7 +11468,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1442-07-23</t>
+          <t>1443-07-23</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -11523,7 +11523,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1442-07-24</t>
+          <t>1443-07-24</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -11578,11 +11578,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1442-07-25</t>
+          <t>1443-07-25</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -11633,20 +11633,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1442-07-26</t>
+          <t>1443-07-26</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -11688,7 +11688,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1442-07-27</t>
+          <t>1443-07-27</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -11743,11 +11743,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1442-07-28</t>
+          <t>1443-07-28</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -11798,11 +11798,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1442-07-29</t>
+          <t>1443-07-29</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -11853,11 +11853,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1442-08-01</t>
+          <t>1443-07-30</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -11908,11 +11908,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1442-08-02</t>
+          <t>1443-08-01</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -11963,11 +11963,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1442-08-03</t>
+          <t>1443-08-02</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -12018,11 +12018,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1442-08-04</t>
+          <t>1443-08-03</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -12073,14 +12073,14 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1442-08-05</t>
+          <t>1443-08-04</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -12128,17 +12128,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1442-08-06</t>
+          <t>1443-08-05</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -12183,23 +12183,23 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1442-08-07</t>
+          <t>1443-08-06</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -12238,26 +12238,26 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1442-08-08</t>
+          <t>1443-08-07</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12293,17 +12293,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1442-08-09</t>
+          <t>1443-08-08</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -12348,29 +12348,29 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1442-08-10</t>
+          <t>1443-08-09</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -12403,26 +12403,26 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1442-08-11</t>
+          <t>1443-08-10</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -12458,23 +12458,23 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1442-08-12</t>
+          <t>1443-08-11</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -12513,23 +12513,23 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1442-08-13</t>
+          <t>1443-08-12</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -12568,23 +12568,23 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1442-08-14</t>
+          <t>1443-08-13</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="C221" t="n">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -12623,23 +12623,23 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1442-08-15</t>
+          <t>1443-08-14</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -12678,20 +12678,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1442-08-16</t>
+          <t>1443-08-15</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -12733,32 +12733,32 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1442-08-17</t>
+          <t>1443-08-16</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -12788,29 +12788,29 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1442-08-18</t>
+          <t>1443-08-17</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -12843,29 +12843,29 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1442-08-19</t>
+          <t>1443-08-18</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -12898,20 +12898,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1442-08-20</t>
+          <t>1443-08-19</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -12953,23 +12953,23 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1442-08-21</t>
+          <t>1443-08-20</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -13008,26 +13008,26 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1442-08-22</t>
+          <t>1443-08-21</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13063,14 +13063,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1442-08-23</t>
+          <t>1443-08-22</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -13118,26 +13118,26 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1442-08-24</t>
+          <t>1443-08-23</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13173,35 +13173,35 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1442-08-25</t>
+          <t>1443-08-24</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>2576</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2582</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="J232" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -13228,29 +13228,29 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1442-08-26</t>
+          <t>1443-08-25</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -13283,26 +13283,26 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1442-08-27</t>
+          <t>1443-08-26</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -13338,32 +13338,32 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1442-08-28</t>
+          <t>1443-08-27</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -13393,29 +13393,29 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1442-08-29</t>
+          <t>1443-08-28</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -13448,23 +13448,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1442-08-30</t>
+          <t>1443-08-29</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -13503,29 +13503,29 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1442-09-01</t>
+          <t>1443-09-01</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -13558,26 +13558,26 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1442-09-02</t>
+          <t>1443-09-02</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -13613,35 +13613,35 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1442-09-03</t>
+          <t>1443-09-03</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -13668,32 +13668,32 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1442-09-04</t>
+          <t>1443-09-04</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -13723,30 +13723,32 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1442-09-05</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr"/>
+          <t>1443-09-05</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>103</v>
+      </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -13776,30 +13778,32 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1442-09-06</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
+          <t>1443-09-06</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>138</v>
+      </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -13829,27 +13833,29 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1442-09-07</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr"/>
+          <t>1443-09-07</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -13882,24 +13888,26 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1442-09-08</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
+          <t>1443-09-08</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3</v>
+      </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -13935,30 +13943,32 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1442-09-09</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+          <t>1443-09-09</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -13988,30 +13998,32 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1442-09-10</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr"/>
+          <t>1443-09-10</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14041,30 +14053,32 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1442-09-11</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
+          <t>1443-09-11</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14094,26 +14108,32 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1442-09-12</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
+          <t>1443-09-12</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>120</v>
+      </c>
+      <c r="D249" t="n">
+        <v>306</v>
+      </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14143,35 +14163,41 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1442-09-13</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
+          <t>1443-09-13</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>54</v>
+      </c>
+      <c r="D250" t="n">
+        <v>589</v>
+      </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="L250" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="M250" t="n">
         <v>0</v>
@@ -14192,20 +14218,26 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1442-09-14</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+          <t>1443-09-14</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>144</v>
+      </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14241,26 +14273,32 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1442-09-15</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+          <t>1443-09-15</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>14</v>
+      </c>
+      <c r="C252" t="n">
+        <v>119</v>
+      </c>
+      <c r="D252" t="n">
+        <v>261</v>
+      </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -14290,29 +14328,35 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1442-09-16</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+          <t>1443-09-16</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>328</v>
+      </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="J253" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -14339,26 +14383,32 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1442-09-17</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+          <t>1443-09-17</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>192</v>
+      </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -14388,26 +14438,32 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1442-09-18</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
+          <t>1443-09-18</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>27</v>
+      </c>
+      <c r="C255" t="n">
+        <v>38</v>
+      </c>
+      <c r="D255" t="n">
+        <v>169</v>
+      </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -14437,35 +14493,41 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1442-09-19</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
+          <t>1443-09-19</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+      <c r="C256" t="n">
+        <v>12</v>
+      </c>
+      <c r="D256" t="n">
+        <v>182</v>
+      </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="J256" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="L256" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="M256" t="n">
         <v>0</v>
@@ -14486,32 +14548,38 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1442-09-20</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
+          <t>1443-09-20</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>281</v>
+      </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
@@ -14535,23 +14603,29 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1442-09-21</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
+          <t>1443-09-21</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>45</v>
+      </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -14584,29 +14658,35 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1442-09-22</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
+          <t>1443-09-22</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9</v>
+      </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -14633,29 +14713,35 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1442-09-23</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
+          <t>1443-09-23</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
@@ -14682,26 +14768,32 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1442-09-24</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
+          <t>1443-09-24</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -14731,29 +14823,35 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1442-09-25</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
+          <t>1443-09-25</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -14780,26 +14878,32 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1442-09-26</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
+          <t>1443-09-26</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -14829,29 +14933,35 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1442-09-27</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
+          <t>1443-09-27</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J264" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
@@ -14878,22 +14988,32 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1442-09-28</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+          <t>1443-09-28</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
-      </c>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="G265" t="n">
+        <v>61</v>
+      </c>
+      <c r="H265" t="n">
+        <v>30</v>
+      </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -14923,25 +15043,35 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1442-09-29</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr"/>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
+          <t>1443-09-29</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>6</v>
+      </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
-      </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
+        <v>293</v>
+      </c>
+      <c r="G266" t="n">
+        <v>165</v>
+      </c>
+      <c r="H266" t="n">
+        <v>177</v>
+      </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="J266" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -14968,22 +15098,32 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1442-09-30</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
+          <t>1443-09-30</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
-      </c>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
+        <v>225</v>
+      </c>
+      <c r="G267" t="n">
+        <v>184</v>
+      </c>
+      <c r="H267" t="n">
+        <v>141</v>
+      </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -15013,20 +15153,30 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1442-10-01</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
+          <t>1443-10-01</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
-      </c>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="G268" t="n">
+        <v>26</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
@@ -15058,20 +15208,30 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1442-10-02</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
+          <t>1443-10-02</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
-      </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="G269" t="n">
+        <v>160</v>
+      </c>
+      <c r="H269" t="n">
+        <v>95</v>
+      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
@@ -15103,20 +15263,30 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1442-10-03</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
+          <t>1443-10-03</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
       <c r="E270" t="n">
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
-      </c>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="G270" t="n">
+        <v>104</v>
+      </c>
+      <c r="H270" t="n">
+        <v>43</v>
+      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
@@ -15148,28 +15318,38 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1442-10-04</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
+          <t>1443-10-04</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
-      </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
+        <v>137</v>
+      </c>
+      <c r="G271" t="n">
+        <v>75</v>
+      </c>
+      <c r="H271" t="n">
+        <v>173</v>
+      </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
         <v>0</v>
@@ -15178,10 +15358,10 @@
         <v>0</v>
       </c>
       <c r="N271" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P271" t="n">
         <v>0</v>
@@ -15193,22 +15373,32 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1442-10-05</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
+          <t>1443-10-05</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
       <c r="E272" t="n">
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
-      </c>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="G272" t="n">
+        <v>17</v>
+      </c>
+      <c r="H272" t="n">
+        <v>4</v>
+      </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -15238,28 +15428,38 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1442-10-06</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
+          <t>1443-10-06</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
       <c r="E273" t="n">
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
-      </c>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G273" t="n">
+        <v>220</v>
+      </c>
+      <c r="H273" t="n">
+        <v>315</v>
+      </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J273" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -15283,25 +15483,35 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1442-10-07</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr"/>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
+          <t>1443-10-07</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
-      </c>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G274" t="n">
+        <v>81</v>
+      </c>
+      <c r="H274" t="n">
+        <v>139</v>
+      </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J274" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -15310,16 +15520,16 @@
         <v>0</v>
       </c>
       <c r="M274" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="N274" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="O274" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="P274" t="n">
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -15328,70 +15538,90 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1442-10-08</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr"/>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
+          <t>1443-10-08</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
       <c r="E275" t="n">
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
-      </c>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G275" t="n">
+        <v>226</v>
+      </c>
+      <c r="H275" t="n">
+        <v>182</v>
+      </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="L275" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
+        <v>2106</v>
       </c>
       <c r="N275" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="O275" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="P275" t="n">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="Q275" t="n">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1442-10-09</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
+          <t>1443-10-09</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>6</v>
+      </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
       </c>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>185</v>
+      </c>
+      <c r="H276" t="n">
+        <v>419</v>
+      </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="J276" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -15418,85 +15648,105 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1442-10-10</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
+          <t>1443-10-10</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>6</v>
+      </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
-      </c>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="G277" t="n">
+        <v>168</v>
+      </c>
+      <c r="H277" t="n">
+        <v>321</v>
+      </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="J277" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L277" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M277" t="n">
         <v>0</v>
       </c>
       <c r="N277" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O277" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P277" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="Q277" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1442-10-11</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr"/>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
+          <t>1443-10-11</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
       <c r="E278" t="n">
         <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>89</v>
+      </c>
+      <c r="H278" t="n">
+        <v>200</v>
+      </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
       </c>
       <c r="L278" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N278" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O278" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P278" t="n">
         <v>0</v>
@@ -15508,25 +15758,35 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1442-10-12</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
+          <t>1443-10-12</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
       <c r="E279" t="n">
         <v>0</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>51</v>
+      </c>
+      <c r="H279" t="n">
+        <v>135</v>
+      </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -15553,70 +15813,90 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1442-10-13</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
+          <t>1443-10-13</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
       <c r="E280" t="n">
         <v>0</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>44</v>
+      </c>
+      <c r="H280" t="n">
+        <v>234</v>
+      </c>
       <c r="I280" t="n">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1871</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="L280" t="n">
-        <v>0</v>
+        <v>3177</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O280" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P280" t="n">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="Q280" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1442-10-14</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+          <t>1443-10-14</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
       <c r="E281" t="n">
         <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
       </c>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>10</v>
+      </c>
+      <c r="H281" t="n">
+        <v>215</v>
+      </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -15631,10 +15911,10 @@
         <v>0</v>
       </c>
       <c r="O281" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P281" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q281" t="n">
         <v>0</v>
@@ -15643,28 +15923,38 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1442-10-15</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr"/>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
+          <t>1443-10-15</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
-      </c>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>98</v>
+      </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L282" t="n">
         <v>0</v>
@@ -15673,13 +15963,13 @@
         <v>0</v>
       </c>
       <c r="N282" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O282" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="P282" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="Q282" t="n">
         <v>0</v>
@@ -15688,31 +15978,41 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1442-10-16</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
+          <t>1443-10-16</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4</v>
+      </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
-      </c>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>98</v>
+      </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J283" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M283" t="n">
         <v>0</v>
@@ -15733,28 +16033,38 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1442-10-17</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
+          <t>1443-10-17</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
       <c r="E284" t="n">
         <v>0</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
       </c>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>98</v>
+      </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J284" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L284" t="n">
         <v>0</v>
@@ -15769,52 +16079,62 @@
         <v>0</v>
       </c>
       <c r="P284" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="Q284" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1442-10-18</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+          <t>1443-10-18</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2</v>
+      </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
       </c>
-      <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>98</v>
+      </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L285" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M285" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="O285" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P285" t="n">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="Q285" t="n">
         <v>0</v>
@@ -15823,31 +16143,41 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1442-10-19</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+          <t>1443-10-19</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
       <c r="E286" t="n">
         <v>0</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
       </c>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>98</v>
+      </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M286" t="n">
         <v>0</v>
@@ -15868,28 +16198,38 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1442-10-20</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr"/>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
+          <t>1443-10-20</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
       <c r="E287" t="n">
         <v>0</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>98</v>
+      </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J287" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L287" t="n">
         <v>0</v>
@@ -15913,28 +16253,38 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1442-10-21</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
+          <t>1443-10-21</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
-      </c>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>98</v>
+      </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J288" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L288" t="n">
         <v>0</v>
@@ -15958,12 +16308,18 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1442-10-22</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+          <t>1443-10-22</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
       <c r="E289" t="n">
         <v>0</v>
       </c>
@@ -15972,21 +16328,23 @@
       </c>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>347</v>
+      </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L289" t="n">
         <v>0</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N289" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O289" t="n">
         <v>0</v>
@@ -16001,12 +16359,18 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1442-10-23</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr"/>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
+          <t>1443-10-23</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
@@ -16015,41 +16379,49 @@
       </c>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>271</v>
+      </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L290" t="n">
         <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="N290" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P290" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q290" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1442-10-24</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
+          <t>1443-10-24</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
       <c r="E291" t="n">
         <v>0</v>
       </c>
@@ -16058,18 +16430,20 @@
       </c>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>124</v>
+      </c>
       <c r="J291" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L291" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="M291" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N291" t="n">
         <v>0</v>
@@ -16078,21 +16452,27 @@
         <v>0</v>
       </c>
       <c r="P291" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q291" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1442-10-25</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
+          <t>1443-10-25</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
       <c r="E292" t="n">
         <v>0</v>
       </c>
@@ -16101,12 +16481,14 @@
       </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>84</v>
+      </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L292" t="n">
         <v>0</v>
@@ -16118,10 +16500,10 @@
         <v>0</v>
       </c>
       <c r="O292" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P292" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="Q292" t="n">
         <v>0</v>
@@ -16130,12 +16512,18 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1442-10-26</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
+          <t>1443-10-26</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
@@ -16144,9 +16532,11 @@
       </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>64</v>
+      </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
@@ -16173,12 +16563,18 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1442-10-27</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
+          <t>1443-10-27</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
@@ -16187,12 +16583,14 @@
       </c>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>67</v>
+      </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L294" t="n">
         <v>0</v>
@@ -16207,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q294" t="n">
         <v>0</v>
@@ -16216,12 +16614,18 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1442-10-28</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr"/>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
+          <t>1443-10-28</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
       <c r="E295" t="n">
         <v>0</v>
       </c>
@@ -16230,21 +16634,23 @@
       </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>13</v>
+      </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L295" t="n">
         <v>0</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O295" t="n">
         <v>0</v>
@@ -16259,35 +16665,43 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1442-10-29</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr"/>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
+          <t>1443-10-29</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>238</v>
+      </c>
+      <c r="C296" t="n">
+        <v>833</v>
+      </c>
+      <c r="D296" t="n">
+        <v>119</v>
+      </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>28</v>
+      </c>
       <c r="J296" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L296" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M296" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N296" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O296" t="n">
         <v>0</v>
@@ -16302,12 +16716,18 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1442-11-01</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr"/>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
+          <t>1443-11-01</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
@@ -16316,12 +16736,14 @@
       </c>
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>3</v>
+      </c>
       <c r="J297" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L297" t="n">
         <v>0</v>
@@ -16330,13 +16752,13 @@
         <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O297" t="n">
         <v>0</v>
       </c>
       <c r="P297" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q297" t="n">
         <v>0</v>
@@ -16345,12 +16767,18 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1442-11-02</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr"/>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
+          <t>1443-11-02</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
       <c r="E298" t="n">
         <v>0</v>
       </c>
@@ -16359,41 +16787,49 @@
       </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
       <c r="J298" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L298" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M298" t="n">
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O298" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="P298" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q298" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1442-11-03</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr"/>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
+          <t>1443-11-03</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
@@ -16402,15 +16838,17 @@
       </c>
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
       <c r="J299" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="L299" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="M299" t="n">
         <v>0</v>
@@ -16419,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="O299" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P299" t="n">
         <v>0</v>
@@ -16431,12 +16869,18 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1442-11-04</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr"/>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
+          <t>1443-11-04</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
@@ -16445,9 +16889,11 @@
       </c>
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K300" t="n">
         <v>0</v>
@@ -16474,12 +16920,18 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1442-11-05</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr"/>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
+          <t>1443-11-05</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
       <c r="E301" t="n">
         <v>0</v>
       </c>
@@ -16488,27 +16940,29 @@
       </c>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L301" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P301" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q301" t="n">
         <v>0</v>
@@ -16517,38 +16971,46 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1442-11-06</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr"/>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
+          <t>1443-11-06</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L302" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M302" t="n">
         <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="O302" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="P302" t="n">
         <v>0</v>
@@ -16560,41 +17022,49 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1442-11-07</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr"/>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
+          <t>1443-11-07</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>12</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>125</v>
+      </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
       </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L303" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M303" t="n">
         <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O303" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P303" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q303" t="n">
         <v>0</v>
@@ -16603,84 +17073,96 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1442-11-08</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr"/>
+          <t>1443-11-08</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
       <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
       </c>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr"/>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
       <c r="J304" t="n">
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L304" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="N304" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="O304" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="P304" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q304" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1442-11-09</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr"/>
+          <t>1443-11-09</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
       <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
+      <c r="D305" t="n">
+        <v>8</v>
+      </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
       <c r="J305" t="n">
         <v>0</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L305" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M305" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N305" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O305" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="P305" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Q305" t="n">
         <v>0</v>
@@ -16689,12 +17171,16 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1442-11-10</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr"/>
+          <t>1443-11-10</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
       <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
       <c r="E306" t="n">
         <v>0</v>
       </c>
@@ -16703,23 +17189,29 @@
       </c>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
       <c r="J306" t="n">
         <v>0</v>
       </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>125</v>
+      </c>
+      <c r="L306" t="n">
+        <v>23</v>
+      </c>
       <c r="M306" t="n">
         <v>0</v>
       </c>
       <c r="N306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O306" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P306" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="Q306" t="n">
         <v>0</v>
@@ -16728,12 +17220,16 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1442-11-11</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr"/>
+          <t>1443-11-11</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
       <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
       <c r="E307" t="n">
         <v>0</v>
       </c>
@@ -16742,12 +17238,18 @@
       </c>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
       <c r="J307" t="n">
         <v>0</v>
       </c>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>125</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
       <c r="M307" t="n">
         <v>0</v>
       </c>
@@ -16767,12 +17269,16 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1442-11-12</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr"/>
+          <t>1443-11-12</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
       <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
       <c r="E308" t="n">
         <v>0</v>
       </c>
@@ -16781,37 +17287,47 @@
       </c>
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
       <c r="J308" t="n">
         <v>0</v>
       </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>125</v>
+      </c>
+      <c r="L308" t="n">
+        <v>79</v>
+      </c>
       <c r="M308" t="n">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="N308" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O308" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="P308" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="Q308" t="n">
-        <v>0</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1442-11-13</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr"/>
+          <t>1443-11-13</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
       <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
       <c r="E309" t="n">
         <v>0</v>
       </c>
@@ -16820,37 +17336,47 @@
       </c>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
       <c r="J309" t="n">
         <v>0</v>
       </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>125</v>
+      </c>
+      <c r="L309" t="n">
+        <v>36</v>
+      </c>
       <c r="M309" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="N309" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P309" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="Q309" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1442-11-14</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr"/>
+          <t>1443-11-14</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
       <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
       <c r="E310" t="n">
         <v>0</v>
       </c>
@@ -16859,37 +17385,47 @@
       </c>
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
       <c r="J310" t="n">
         <v>0</v>
       </c>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>125</v>
+      </c>
+      <c r="L310" t="n">
+        <v>549</v>
+      </c>
       <c r="M310" t="n">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="N310" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O310" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="P310" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="Q310" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1442-11-15</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr"/>
+          <t>1443-11-15</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
       <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
       <c r="E311" t="n">
         <v>0</v>
       </c>
@@ -16898,37 +17434,45 @@
       </c>
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
       <c r="J311" t="n">
         <v>0</v>
       </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>168</v>
+      </c>
       <c r="M311" t="n">
-        <v>0</v>
+        <v>1923</v>
       </c>
       <c r="N311" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="O311" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P311" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="Q311" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1442-11-16</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr"/>
+          <t>1443-11-16</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
       <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
       <c r="E312" t="n">
         <v>0</v>
       </c>
@@ -16937,37 +17481,45 @@
       </c>
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
       <c r="J312" t="n">
         <v>0</v>
       </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>9</v>
+      </c>
       <c r="M312" t="n">
         <v>0</v>
       </c>
       <c r="N312" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O312" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="P312" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q312" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1442-11-17</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr"/>
+          <t>1443-11-17</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
       <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
@@ -16976,23 +17528,27 @@
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
       <c r="J313" t="n">
         <v>0</v>
       </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
       <c r="M313" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N313" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="O313" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="P313" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q313" t="n">
         <v>0</v>
@@ -17001,12 +17557,16 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1442-11-18</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr"/>
+          <t>1443-11-18</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
       <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
       <c r="E314" t="n">
         <v>0</v>
       </c>
@@ -17015,23 +17575,27 @@
       </c>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
       <c r="J314" t="n">
         <v>0</v>
       </c>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>6</v>
+      </c>
       <c r="M314" t="n">
         <v>0</v>
       </c>
       <c r="N314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O314" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q314" t="n">
         <v>0</v>
@@ -17040,12 +17604,16 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1442-11-19</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr"/>
+          <t>1443-11-19</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
       <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
       <c r="E315" t="n">
         <v>0</v>
       </c>
@@ -17054,101 +17622,109 @@
       </c>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
       <c r="J315" t="n">
         <v>0</v>
       </c>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>6</v>
+      </c>
       <c r="M315" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N315" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="P315" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Q315" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1442-11-20</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr"/>
+          <t>1443-11-20</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr"/>
-      <c r="E316" t="n">
-        <v>0</v>
-      </c>
-      <c r="F316" t="n">
-        <v>0</v>
-      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
       <c r="J316" t="n">
         <v>0</v>
       </c>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>6</v>
+      </c>
       <c r="M316" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N316" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O316" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="P316" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q316" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1442-11-21</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr"/>
+          <t>1443-11-21</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
-      <c r="E317" t="n">
-        <v>0</v>
-      </c>
-      <c r="F317" t="n">
-        <v>0</v>
-      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr"/>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
       <c r="J317" t="n">
         <v>0</v>
       </c>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>6</v>
+      </c>
       <c r="M317" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N317" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O317" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="P317" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q317" t="n">
         <v>0</v>
@@ -17157,76 +17733,80 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1442-11-22</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr"/>
+          <t>1443-11-22</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr"/>
-      <c r="E318" t="n">
-        <v>0</v>
-      </c>
-      <c r="F318" t="n">
-        <v>0</v>
-      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
       <c r="J318" t="n">
         <v>0</v>
       </c>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>6</v>
+      </c>
       <c r="M318" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="N318" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="O318" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="P318" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Q318" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1442-11-23</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr"/>
+          <t>1443-11-23</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr"/>
-      <c r="E319" t="n">
-        <v>0</v>
-      </c>
-      <c r="F319" t="n">
-        <v>0</v>
-      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
       <c r="J319" t="n">
         <v>0</v>
       </c>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>6</v>
+      </c>
       <c r="M319" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="N319" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O319" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="P319" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q319" t="n">
         <v>0</v>
@@ -17235,37 +17815,39 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1442-11-24</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr"/>
+          <t>1443-11-24</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
-      <c r="E320" t="n">
-        <v>0</v>
-      </c>
-      <c r="F320" t="n">
-        <v>0</v>
-      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
       <c r="J320" t="n">
         <v>0</v>
       </c>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>6</v>
+      </c>
       <c r="M320" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N320" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O320" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P320" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="Q320" t="n">
         <v>0</v>
@@ -17274,34 +17856,34 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1442-11-25</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr"/>
+          <t>1443-11-25</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
-      <c r="E321" t="n">
-        <v>0</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0</v>
-      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
       <c r="J321" t="n">
         <v>0</v>
       </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O321" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P321" t="n">
         <v>0</v>
@@ -17313,37 +17895,37 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1442-11-26</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr"/>
+          <t>1443-11-26</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr"/>
-      <c r="E322" t="n">
-        <v>0</v>
-      </c>
-      <c r="F322" t="n">
-        <v>0</v>
-      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
       <c r="J322" t="n">
         <v>0</v>
       </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="N322" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="O322" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="P322" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q322" t="n">
         <v>0</v>
@@ -17352,99 +17934,99 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1442-11-27</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr"/>
+          <t>1443-11-27</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr"/>
-      <c r="E323" t="n">
-        <v>0</v>
-      </c>
-      <c r="F323" t="n">
-        <v>0</v>
-      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
       <c r="J323" t="n">
         <v>0</v>
       </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N323" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O323" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P323" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q323" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1442-11-28</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr"/>
+          <t>1443-11-28</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr"/>
-      <c r="E324" t="n">
-        <v>0</v>
-      </c>
-      <c r="F324" t="n">
-        <v>0</v>
-      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
       <c r="J324" t="n">
         <v>0</v>
       </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N324" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O324" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="P324" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q324" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1442-11-29</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
+          <t>1443-11-29</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr"/>
-      <c r="E325" t="n">
-        <v>0</v>
-      </c>
-      <c r="F325" t="n">
-        <v>0</v>
-      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
       <c r="J325" t="n">
         <v>0</v>
       </c>
@@ -17454,114 +18036,114 @@
         <v>0</v>
       </c>
       <c r="N325" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O325" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P325" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1442-11-30</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr"/>
+          <t>1443-11-30</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr"/>
-      <c r="E326" t="n">
-        <v>0</v>
-      </c>
-      <c r="F326" t="n">
-        <v>0</v>
-      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
       <c r="J326" t="n">
         <v>0</v>
       </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N326" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="O326" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="P326" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Q326" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1442-12-01</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr"/>
+          <t>1443-12-01</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr"/>
-      <c r="E327" t="n">
-        <v>0</v>
-      </c>
-      <c r="F327" t="n">
-        <v>0</v>
-      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
       <c r="J327" t="n">
         <v>0</v>
       </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O327" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="P327" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q327" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1442-12-02</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr"/>
+          <t>1443-12-02</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr"/>
-      <c r="E328" t="n">
-        <v>0</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0</v>
-      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
       <c r="J328" t="n">
         <v>0</v>
       </c>
@@ -17571,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O328" t="n">
         <v>0</v>
@@ -17586,21 +18168,21 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1442-12-03</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr"/>
+          <t>1443-12-03</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
-      <c r="E329" t="n">
-        <v>0</v>
-      </c>
-      <c r="F329" t="n">
-        <v>0</v>
-      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
       <c r="J329" t="n">
         <v>0</v>
       </c>
@@ -17610,273 +18192,233 @@
         <v>0</v>
       </c>
       <c r="N329" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="O329" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="P329" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q329" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1442-12-04</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr"/>
+          <t>1443-12-04</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
-      <c r="E330" t="n">
-        <v>0</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0</v>
-      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>0</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>0</v>
       </c>
       <c r="N330" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O330" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P330" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q330" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1442-12-05</t>
+          <t>1443-12-05</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
-      <c r="E331" t="n">
-        <v>0</v>
-      </c>
-      <c r="F331" t="n">
-        <v>0</v>
-      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>0</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>0</v>
       </c>
       <c r="N331" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O331" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="P331" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q331" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1442-12-06</t>
+          <t>1443-12-06</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
-      <c r="E332" t="n">
-        <v>0</v>
-      </c>
-      <c r="F332" t="n">
-        <v>0</v>
-      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>0</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>0</v>
       </c>
       <c r="N332" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O332" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="P332" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q332" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1442-12-07</t>
+          <t>1443-12-07</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
-      <c r="E333" t="n">
-        <v>0</v>
-      </c>
-      <c r="F333" t="n">
-        <v>0</v>
-      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>0</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>0</v>
       </c>
       <c r="N333" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O333" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="P333" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q333" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1442-12-08</t>
+          <t>1443-12-08</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr"/>
-      <c r="E334" t="n">
-        <v>0</v>
-      </c>
-      <c r="F334" t="n">
-        <v>0</v>
-      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>0</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>0</v>
       </c>
       <c r="N334" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O334" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P334" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q334" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1442-12-09</t>
+          <t>1443-12-09</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr"/>
-      <c r="E335" t="n">
-        <v>0</v>
-      </c>
-      <c r="F335" t="n">
-        <v>0</v>
-      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>0</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>0</v>
       </c>
       <c r="N335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O335" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="P335" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1442-12-10</t>
+          <t>1443-12-10</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr"/>
-      <c r="E336" t="n">
-        <v>0</v>
-      </c>
-      <c r="F336" t="n">
-        <v>0</v>
-      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>0</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
@@ -17886,36 +18428,30 @@
         <v>0</v>
       </c>
       <c r="O336" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="P336" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q336" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1442-12-11</t>
+          <t>1443-12-11</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr"/>
-      <c r="E337" t="n">
-        <v>0</v>
-      </c>
-      <c r="F337" t="n">
-        <v>0</v>
-      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>0</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
@@ -17925,10 +18461,10 @@
         <v>0</v>
       </c>
       <c r="O337" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="P337" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q337" t="n">
         <v>0</v>
@@ -17937,24 +18473,18 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1442-12-12</t>
+          <t>1443-12-12</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
-      <c r="E338" t="n">
-        <v>0</v>
-      </c>
-      <c r="F338" t="n">
-        <v>0</v>
-      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>0</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
@@ -17964,36 +18494,30 @@
         <v>0</v>
       </c>
       <c r="O338" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="P338" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="Q338" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1442-12-13</t>
+          <t>1443-12-13</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
-      <c r="E339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F339" t="n">
-        <v>0</v>
-      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>0</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
@@ -18003,36 +18527,30 @@
         <v>0</v>
       </c>
       <c r="O339" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="P339" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q339" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1442-12-14</t>
+          <t>1443-12-14</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
-      <c r="E340" t="n">
-        <v>0</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0</v>
-      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>0</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
@@ -18042,36 +18560,30 @@
         <v>0</v>
       </c>
       <c r="O340" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P340" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="Q340" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1442-12-15</t>
+          <t>1443-12-15</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
-      <c r="E341" t="n">
-        <v>0</v>
-      </c>
-      <c r="F341" t="n">
-        <v>0</v>
-      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>0</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
@@ -18081,36 +18593,30 @@
         <v>0</v>
       </c>
       <c r="O341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="Q341" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1442-12-16</t>
+          <t>1443-12-16</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
-      <c r="E342" t="n">
-        <v>0</v>
-      </c>
-      <c r="F342" t="n">
-        <v>0</v>
-      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>0</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
@@ -18123,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="P342" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="Q342" t="n">
         <v>0</v>
@@ -18132,24 +18638,18 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1442-12-17</t>
+          <t>1443-12-17</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr"/>
-      <c r="E343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F343" t="n">
-        <v>0</v>
-      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>0</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
@@ -18161,65 +18661,61 @@
       <c r="O343" t="n">
         <v>0</v>
       </c>
-      <c r="P343" t="inlineStr"/>
-      <c r="Q343" t="inlineStr"/>
+      <c r="P343" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1442-12-18</t>
+          <t>1443-12-18</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
-      <c r="E344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0</v>
-      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>0</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>0</v>
       </c>
       <c r="N344" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O344" t="n">
         <v>0</v>
       </c>
-      <c r="P344" t="inlineStr"/>
-      <c r="Q344" t="inlineStr"/>
+      <c r="P344" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1442-12-19</t>
+          <t>1443-12-19</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr"/>
-      <c r="E345" t="n">
-        <v>0</v>
-      </c>
-      <c r="F345" t="n">
-        <v>0</v>
-      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>0</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
@@ -18231,30 +18727,28 @@
       <c r="O345" t="n">
         <v>0</v>
       </c>
-      <c r="P345" t="inlineStr"/>
-      <c r="Q345" t="inlineStr"/>
+      <c r="P345" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1442-12-20</t>
+          <t>1443-12-20</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
-      <c r="E346" t="n">
-        <v>0</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0</v>
-      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>0</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
@@ -18266,30 +18760,28 @@
       <c r="O346" t="n">
         <v>0</v>
       </c>
-      <c r="P346" t="inlineStr"/>
-      <c r="Q346" t="inlineStr"/>
+      <c r="P346" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1442-12-21</t>
+          <t>1443-12-21</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
-      <c r="E347" t="n">
-        <v>0</v>
-      </c>
-      <c r="F347" t="n">
-        <v>0</v>
-      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>0</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
@@ -18302,29 +18794,25 @@
         <v>0</v>
       </c>
       <c r="P347" t="inlineStr"/>
-      <c r="Q347" t="inlineStr"/>
+      <c r="Q347" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1442-12-22</t>
+          <t>1443-12-22</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
-      <c r="E348" t="n">
-        <v>0</v>
-      </c>
-      <c r="F348" t="n">
-        <v>0</v>
-      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>0</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
@@ -18337,29 +18825,25 @@
         <v>0</v>
       </c>
       <c r="P348" t="inlineStr"/>
-      <c r="Q348" t="inlineStr"/>
+      <c r="Q348" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1442-12-23</t>
+          <t>1443-12-23</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
-      <c r="E349" t="n">
-        <v>0</v>
-      </c>
-      <c r="F349" t="n">
-        <v>0</v>
-      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>0</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
@@ -18372,29 +18856,25 @@
         <v>0</v>
       </c>
       <c r="P349" t="inlineStr"/>
-      <c r="Q349" t="inlineStr"/>
+      <c r="Q349" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1442-12-24</t>
+          <t>1443-12-24</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr"/>
-      <c r="E350" t="n">
-        <v>0</v>
-      </c>
-      <c r="F350" t="n">
-        <v>0</v>
-      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>0</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
@@ -18407,29 +18887,25 @@
         <v>0</v>
       </c>
       <c r="P350" t="inlineStr"/>
-      <c r="Q350" t="inlineStr"/>
+      <c r="Q350" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1442-12-25</t>
+          <t>1443-12-25</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr"/>
-      <c r="E351" t="n">
-        <v>0</v>
-      </c>
-      <c r="F351" t="n">
-        <v>0</v>
-      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>0</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
@@ -18442,29 +18918,25 @@
         <v>0</v>
       </c>
       <c r="P351" t="inlineStr"/>
-      <c r="Q351" t="inlineStr"/>
+      <c r="Q351" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1442-12-26</t>
+          <t>1443-12-26</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr"/>
-      <c r="E352" t="n">
-        <v>0</v>
-      </c>
-      <c r="F352" t="n">
-        <v>0</v>
-      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>0</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
@@ -18477,29 +18949,25 @@
         <v>0</v>
       </c>
       <c r="P352" t="inlineStr"/>
-      <c r="Q352" t="inlineStr"/>
+      <c r="Q352" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1442-12-27</t>
+          <t>1443-12-27</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
-      <c r="E353" t="n">
-        <v>0</v>
-      </c>
-      <c r="F353" t="n">
-        <v>0</v>
-      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>0</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
@@ -18512,29 +18980,25 @@
         <v>0</v>
       </c>
       <c r="P353" t="inlineStr"/>
-      <c r="Q353" t="inlineStr"/>
+      <c r="Q353" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1442-12-28</t>
+          <t>1443-12-28</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr"/>
-      <c r="E354" t="n">
-        <v>0</v>
-      </c>
-      <c r="F354" t="n">
-        <v>0</v>
-      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>0</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
@@ -18547,29 +19011,25 @@
         <v>0</v>
       </c>
       <c r="P354" t="inlineStr"/>
-      <c r="Q354" t="inlineStr"/>
+      <c r="Q354" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1442-12-29</t>
+          <t>1443-12-29</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr"/>
-      <c r="E355" t="n">
-        <v>0</v>
-      </c>
-      <c r="F355" t="n">
-        <v>0</v>
-      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>0</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
@@ -18582,42 +19042,57 @@
         <v>0</v>
       </c>
       <c r="P355" t="inlineStr"/>
-      <c r="Q355" t="inlineStr"/>
+      <c r="Q355" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1443-01-01</t>
+          <t>1443-12-30</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr"/>
-      <c r="E356" t="n">
-        <v>0</v>
-      </c>
-      <c r="F356" t="n">
-        <v>0</v>
-      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>0</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>0</v>
-      </c>
-      <c r="N356" t="n">
-        <v>0</v>
-      </c>
-      <c r="O356" t="n">
-        <v>0</v>
-      </c>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr"/>
-      <c r="Q356" t="inlineStr"/>
+      <c r="Q356" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1444-01-01</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
